--- a/Excel/CostData.xlsx
+++ b/Excel/CostData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>MaxCost</t>
     <phoneticPr fontId="1"/>
@@ -121,6 +121,21 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -520,70 +535,81 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
